--- a/data/trans_orig/Q23-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Habitat-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.74981810311861</v>
+        <v>15.7376192905322</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.91641371129759</v>
+        <v>15.91667170346546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.979673298016</v>
+        <v>15.98105560201737</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.63056398648087</v>
+        <v>16.64118726580699</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.16533545093645</v>
+        <v>17.19244174837374</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.33168333505165</v>
+        <v>17.30920964651238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.0861765358758</v>
+        <v>16.0845309030203</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.38945439942651</v>
+        <v>16.40153476202582</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.6041103255459</v>
+        <v>16.5908374575989</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.1934564922093</v>
+        <v>16.18784804074239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.59172608715206</v>
+        <v>16.58353824245967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.76094179612238</v>
+        <v>16.77140109971476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.44882558745936</v>
+        <v>17.4517655874617</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.25533326135096</v>
+        <v>18.2664960818412</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.75264547193708</v>
+        <v>18.77572697060253</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.50959096659857</v>
+        <v>16.50137081132389</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.00250534702892</v>
+        <v>16.99969502699686</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.34080431164353</v>
+        <v>17.32942965752839</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.28787822004159</v>
+        <v>16.25532214978638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.32301875347384</v>
+        <v>16.30412980229814</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.24640355986476</v>
+        <v>16.24379151862796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17.1065098429576</v>
+        <v>17.0861139019523</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.24194967517163</v>
+        <v>17.30748490517667</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.91652744970947</v>
+        <v>16.86171992840193</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.66781873281627</v>
+        <v>16.65188458677986</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.7532533597084</v>
+        <v>16.75430711937276</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.61331701558978</v>
+        <v>16.60962022271184</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.01356082419121</v>
+        <v>16.97401494688382</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.86537264126387</v>
+        <v>16.88429121647263</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.94308787788981</v>
+        <v>16.96076455294952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.02061042766211</v>
+        <v>18.08514509551095</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.18306534939294</v>
+        <v>18.22419414930756</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.76480333139525</v>
+        <v>17.76412750500204</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.23804398709555</v>
+        <v>17.23533249283731</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.24152127995673</v>
+        <v>17.23394490252538</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.17224127904962</v>
+        <v>17.1833433203219</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.01796456537779</v>
+        <v>16.00005700451867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.15819385301343</v>
+        <v>16.20358443108534</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.16588100803284</v>
+        <v>16.14502545131446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.35969155895935</v>
+        <v>17.31181973176294</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.87148642384451</v>
+        <v>16.87751655026364</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.204701714243</v>
+        <v>17.23710718453256</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.59317742767069</v>
+        <v>16.61919958810121</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.55493868936039</v>
+        <v>16.54799771828574</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.71399479250476</v>
+        <v>16.71428209423352</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.59417593190674</v>
+        <v>16.58265316432538</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.81411414662342</v>
+        <v>16.83077957874457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.8033452884053</v>
+        <v>16.80678089115871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.00343917930951</v>
+        <v>18.88991376326414</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.91216853182008</v>
+        <v>17.88427438123289</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.25466899833737</v>
+        <v>18.32319296935394</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.31931957718013</v>
+        <v>17.31395700667091</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.08913628732529</v>
+        <v>17.13661013579357</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.29017927825059</v>
+        <v>17.27738520613613</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.15636139337292</v>
+        <v>16.1447247236734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.25683666001071</v>
+        <v>16.28729667085588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.21506538421971</v>
+        <v>16.21498209444231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.95089697419861</v>
+        <v>17.00941757067681</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.39948019585816</v>
+        <v>17.3720150197354</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.37679310465571</v>
+        <v>17.38346453981573</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.56386823303881</v>
+        <v>16.55308692622114</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.85965206494414</v>
+        <v>16.86945742383243</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.83544772997865</v>
+        <v>16.84931016669251</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.62453126250645</v>
+        <v>16.61271226961815</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.77698194938503</v>
+        <v>16.78685512928574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.94041986202366</v>
+        <v>16.88345264132079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.93898143853521</v>
+        <v>17.99622002699659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.78065009964962</v>
+        <v>18.70117084638012</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.37616946208961</v>
+        <v>18.48862320115464</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.05439558780725</v>
+        <v>17.06748478812801</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.4918789817659</v>
+        <v>17.47262251565598</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.4546326711931</v>
+        <v>17.45978093573963</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.19272551372568</v>
+        <v>16.19169417497756</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.31580058065951</v>
+        <v>16.30678673415865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.29872976552547</v>
+        <v>16.3264753318745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.2334039734938</v>
+        <v>17.23159006844712</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.38684878070887</v>
+        <v>17.40590224652148</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.40479161804085</v>
+        <v>17.40188700006528</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.60672778746126</v>
+        <v>16.62170243663266</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.78737257483996</v>
+        <v>16.79786805086331</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.81659519251818</v>
+        <v>16.82846326717741</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.49446987663723</v>
+        <v>16.48825570781888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.61427244682575</v>
+        <v>16.61229024792916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.67495468225422</v>
+        <v>16.67221651736084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.78523697512433</v>
+        <v>17.75321952956343</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.94877114028113</v>
+        <v>17.99854466205621</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.94141125902019</v>
+        <v>17.96236487090352</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>16.89032562422917</v>
+        <v>16.89572437984266</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.08367446751702</v>
+        <v>17.08408028443056</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.12056009994124</v>
+        <v>17.12589926137929</v>
       </c>
     </row>
     <row r="19">
